--- a/Annotations/New/ThePaintedMan.xlsx
+++ b/Annotations/New/ThePaintedMan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="paintedman" sheetId="1" r:id="rId1"/>
@@ -1883,15 +1883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="52" style="1" customWidth="1"/>
     <col min="5" max="5" width="60.6640625" style="2" customWidth="1"/>
@@ -1957,7 +1957,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.55470847777567323</v>
+        <v>0.14861458206525591</v>
       </c>
       <c r="B2" s="2">
         <v>30</v>
@@ -1978,7 +1978,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87024949038370047</v>
+        <v>0.717242048196298</v>
       </c>
       <c r="B3" s="2">
         <v>44</v>
@@ -2005,7 +2005,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54554956249368081</v>
+        <v>0.83092659670745472</v>
       </c>
       <c r="B4" s="2">
         <v>256</v>
@@ -2029,7 +2029,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58513104606592004</v>
+        <v>0.39554328375084769</v>
       </c>
       <c r="B5" s="2">
         <v>246</v>
@@ -2056,7 +2056,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29860126594029013</v>
+        <v>0.12053350651789829</v>
       </c>
       <c r="B6" s="2">
         <v>37</v>
@@ -2080,7 +2080,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2685924816772052E-2</v>
+        <v>0.9082415781277402</v>
       </c>
       <c r="B7" s="2">
         <v>149</v>
@@ -2101,7 +2101,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15001718254908025</v>
+        <v>0.50118499091595292</v>
       </c>
       <c r="B8" s="2">
         <v>70</v>
@@ -2128,7 +2128,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89505348903594439</v>
+        <v>0.52201917337488724</v>
       </c>
       <c r="B9" s="2">
         <v>126</v>
@@ -2149,7 +2149,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46164359897531981</v>
+        <v>0.47665894507348849</v>
       </c>
       <c r="B10" s="2">
         <v>162</v>
@@ -2173,7 +2173,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16138190074012915</v>
+        <v>0.10584777272392065</v>
       </c>
       <c r="B11" s="2">
         <v>127</v>
@@ -2194,7 +2194,7 @@
     <row r="12" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33419448639955396</v>
+        <v>0.56335525358407956</v>
       </c>
       <c r="B12" s="2">
         <v>82</v>
@@ -2215,7 +2215,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.651037131424689</v>
+        <v>0.54563328139647427</v>
       </c>
       <c r="B13" s="2">
         <v>119</v>
@@ -2242,7 +2242,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72382313287534961</v>
+        <v>0.74010022415521359</v>
       </c>
       <c r="B14" s="2">
         <v>221</v>
@@ -2263,7 +2263,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73181715368573275</v>
+        <v>0.2809394575831089</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -2284,7 +2284,7 @@
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68921687783411167</v>
+        <v>0.29341425560823398</v>
       </c>
       <c r="B16" s="2">
         <v>75</v>
@@ -2308,7 +2308,7 @@
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15947970901680142</v>
+        <v>0.1247027538081148</v>
       </c>
       <c r="B17" s="2">
         <v>163</v>
@@ -2329,7 +2329,7 @@
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83599333646977581</v>
+        <v>0.16222776971394692</v>
       </c>
       <c r="B18" s="2">
         <v>143</v>
@@ -2353,7 +2353,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2730838891935665E-3</v>
+        <v>0.12996733250888182</v>
       </c>
       <c r="B19" s="2">
         <v>236</v>
@@ -2374,7 +2374,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14133784816514738</v>
+        <v>0.326249416533828</v>
       </c>
       <c r="B20" s="2">
         <v>182</v>
@@ -2398,7 +2398,7 @@
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91477035732494194</v>
+        <v>4.1919562041363823E-2</v>
       </c>
       <c r="B21" s="2">
         <v>245</v>
@@ -2419,7 +2419,7 @@
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80241843512627575</v>
+        <v>0.47494355522361154</v>
       </c>
       <c r="B22" s="2">
         <v>93</v>
@@ -2440,7 +2440,7 @@
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35355680870730299</v>
+        <v>0.20050842020605009</v>
       </c>
       <c r="B23" s="2">
         <v>252</v>
@@ -2461,7 +2461,7 @@
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23482502605518563</v>
+        <v>0.17156223711658214</v>
       </c>
       <c r="B24" s="2">
         <v>251</v>
@@ -2488,7 +2488,7 @@
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38665350460835457</v>
+        <v>0.6713931267993547</v>
       </c>
       <c r="B25" s="2">
         <v>285</v>
@@ -2512,7 +2512,7 @@
     <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19640164781860525</v>
+        <v>9.0382062686790166E-3</v>
       </c>
       <c r="B26" s="2">
         <v>136</v>
@@ -2542,7 +2542,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0799007991390255E-2</v>
+        <v>0.53349086702343762</v>
       </c>
       <c r="B27" s="2">
         <v>260</v>
@@ -2569,7 +2569,7 @@
     <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60716075424544391</v>
+        <v>0.36223176453074157</v>
       </c>
       <c r="B28" s="2">
         <v>100</v>
@@ -2590,7 +2590,7 @@
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36490093942539015</v>
+        <v>0.69888506238812487</v>
       </c>
       <c r="B29" s="2">
         <v>99</v>
@@ -2611,7 +2611,7 @@
     <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35802545083707105</v>
+        <v>1.0197387804716018E-2</v>
       </c>
       <c r="B30" s="2">
         <v>205</v>
@@ -2635,7 +2635,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73213896155878966</v>
+        <v>0.41646247146875759</v>
       </c>
       <c r="B31" s="2">
         <v>272</v>
@@ -2662,7 +2662,7 @@
     <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49011742506500022</v>
+        <v>0.95629714510782704</v>
       </c>
       <c r="B32" s="2">
         <v>121</v>
@@ -2689,7 +2689,7 @@
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16773191146248301</v>
+        <v>0.94815731977655149</v>
       </c>
       <c r="B33" s="2">
         <v>193</v>
@@ -2713,7 +2713,7 @@
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86863672032010741</v>
+        <v>0.86605469084822484</v>
       </c>
       <c r="B34" s="2">
         <v>92</v>
@@ -2737,7 +2737,7 @@
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58380833920146102</v>
+        <v>0.77582750986093107</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -2761,7 +2761,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8427293095827727</v>
+        <v>0.77424548687068595</v>
       </c>
       <c r="B36" s="2">
         <v>231</v>
@@ -2788,7 +2788,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31745017305196288</v>
+        <v>0.25773726780268225</v>
       </c>
       <c r="B37" s="2">
         <v>187</v>
@@ -2815,7 +2815,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82980037318771915</v>
+        <v>0.72125107753753159</v>
       </c>
       <c r="B38" s="2">
         <v>217</v>
@@ -2839,7 +2839,7 @@
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28443696408950792</v>
+        <v>0.20624273270576099</v>
       </c>
       <c r="B39" s="2">
         <v>80</v>
@@ -2863,7 +2863,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14458705488687373</v>
+        <v>0.45626999022337644</v>
       </c>
       <c r="B40" s="2">
         <v>216</v>
@@ -2884,7 +2884,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41085909967056622</v>
+        <v>0.67528067737546293</v>
       </c>
       <c r="B41" s="2">
         <v>69</v>
@@ -2905,7 +2905,7 @@
     <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43484653591386491</v>
+        <v>0.41323672895009267</v>
       </c>
       <c r="B42" s="2">
         <v>39</v>
@@ -2929,7 +2929,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93479994904022379</v>
+        <v>0.50358754184237009</v>
       </c>
       <c r="B43" s="2">
         <v>133</v>
@@ -2953,7 +2953,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52345096004303215</v>
+        <v>0.26657841896602497</v>
       </c>
       <c r="B44" s="2">
         <v>22</v>
@@ -2980,7 +2980,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36177721409976016</v>
+        <v>0.37026007695998786</v>
       </c>
       <c r="B45" s="2">
         <v>27</v>
@@ -3004,7 +3004,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44050113697220472</v>
+        <v>0.93529387030040534</v>
       </c>
       <c r="B46" s="2">
         <v>219</v>
@@ -3025,7 +3025,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20501918867762359</v>
+        <v>0.74406167397318279</v>
       </c>
       <c r="B47" s="2">
         <v>274</v>
@@ -3049,7 +3049,7 @@
     <row r="48" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61819833308349093</v>
+        <v>0.42396646474508803</v>
       </c>
       <c r="B48" s="2">
         <v>89</v>
@@ -3076,7 +3076,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95975576555717423</v>
+        <v>0.45164703871696843</v>
       </c>
       <c r="B49" s="2">
         <v>64</v>
@@ -3097,7 +3097,7 @@
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51805959557135783</v>
+        <v>0.80778168988176047</v>
       </c>
       <c r="B50" s="2">
         <v>300</v>
@@ -3127,7 +3127,7 @@
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95767241499731626</v>
+        <v>0.70748501679442777</v>
       </c>
       <c r="B51" s="2">
         <v>266</v>
@@ -3151,7 +3151,7 @@
     <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48786563931458471</v>
+        <v>0.19295911084258544</v>
       </c>
       <c r="B52" s="2">
         <v>148</v>
@@ -3172,7 +3172,7 @@
     <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56698572466913211</v>
+        <v>0.28869338492557262</v>
       </c>
       <c r="B53" s="2">
         <v>299</v>
@@ -3196,7 +3196,7 @@
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43563097331133682</v>
+        <v>0.70135512530154176</v>
       </c>
       <c r="B54" s="2">
         <v>15</v>
@@ -3223,7 +3223,7 @@
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84395192002019137</v>
+        <v>0.24853647850212424</v>
       </c>
       <c r="B55" s="2">
         <v>63</v>
@@ -3247,7 +3247,7 @@
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3920299306866567</v>
+        <v>0.48165277395430528</v>
       </c>
       <c r="B56" s="2">
         <v>227</v>
@@ -3271,7 +3271,7 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96950906352002286</v>
+        <v>0.58693349226084612</v>
       </c>
       <c r="B57" s="2">
         <v>150</v>
@@ -3295,7 +3295,7 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12387831313684761</v>
+        <v>0.36504881814746215</v>
       </c>
       <c r="B58" s="2">
         <v>65</v>
@@ -3319,7 +3319,7 @@
     <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99098966209872186</v>
+        <v>0.67390909338780192</v>
       </c>
       <c r="B59" s="2">
         <v>109</v>
@@ -3343,7 +3343,7 @@
     <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1566871263015437E-2</v>
+        <v>0.69555460260665547</v>
       </c>
       <c r="B60" s="2">
         <v>281</v>
@@ -3364,7 +3364,7 @@
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77623873958275247</v>
+        <v>0.73986758394065999</v>
       </c>
       <c r="B61" s="2">
         <v>249</v>
@@ -3391,7 +3391,7 @@
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0122400406069114E-2</v>
+        <v>0.54022406042612103</v>
       </c>
       <c r="B62" s="2">
         <v>107</v>
@@ -3412,7 +3412,7 @@
     <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33383511737701832</v>
+        <v>0.88614049512325843</v>
       </c>
       <c r="B63" s="2">
         <v>277</v>
@@ -3436,7 +3436,7 @@
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13125899522333262</v>
+        <v>0.94797631813993344</v>
       </c>
       <c r="B64" s="2">
         <v>108</v>
@@ -3460,7 +3460,7 @@
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7893602626326897E-2</v>
+        <v>0.6785711037493628</v>
       </c>
       <c r="B65" s="2">
         <v>296</v>
@@ -3484,7 +3484,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.55467810111020843</v>
+        <v>6.4529848134877499E-2</v>
       </c>
       <c r="B66" s="2">
         <v>242</v>
@@ -3508,7 +3508,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80342913277844674</v>
+        <v>0.24871616998412716</v>
       </c>
       <c r="B67" s="2">
         <v>207</v>
@@ -3532,7 +3532,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70286501525504175</v>
+        <v>0.8533540406841339</v>
       </c>
       <c r="B68" s="2">
         <v>98</v>
@@ -3553,7 +3553,7 @@
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45213676766039568</v>
+        <v>0.6429614040252376</v>
       </c>
       <c r="B69" s="2">
         <v>170</v>
@@ -3574,7 +3574,7 @@
     <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4600134388939201</v>
+        <v>0.73161222926159974</v>
       </c>
       <c r="B70" s="2">
         <v>113</v>
@@ -3601,7 +3601,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6243925761979128E-2</v>
+        <v>0.15589146409092924</v>
       </c>
       <c r="B71" s="2">
         <v>255</v>
@@ -3625,7 +3625,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27211228014739985</v>
+        <v>0.7750754991992963</v>
       </c>
       <c r="B72" s="2">
         <v>175</v>
@@ -3652,7 +3652,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61117121676094432</v>
+        <v>0.78361779373487284</v>
       </c>
       <c r="B73" s="2">
         <v>35</v>
@@ -3673,7 +3673,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12260388140136413</v>
+        <v>0.82128872064977398</v>
       </c>
       <c r="B74" s="2">
         <v>54</v>
@@ -3697,7 +3697,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56422476456446891</v>
+        <v>8.2625120839197042E-3</v>
       </c>
       <c r="B75" s="2">
         <v>129</v>
@@ -3718,7 +3718,7 @@
     <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2772696956047167</v>
+        <v>0.19309100740410556</v>
       </c>
       <c r="B76" s="2">
         <v>94</v>
@@ -3739,7 +3739,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54506395988371814</v>
+        <v>0.20205135130925156</v>
       </c>
       <c r="B77" s="2">
         <v>145</v>
@@ -3763,7 +3763,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54262897735471671</v>
+        <v>8.0985064447439914E-2</v>
       </c>
       <c r="B78" s="2">
         <v>264</v>
@@ -3784,7 +3784,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85545574264422308</v>
+        <v>0.5355657488453367</v>
       </c>
       <c r="B79" s="2">
         <v>124</v>
@@ -3808,7 +3808,7 @@
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1049426305086909</v>
+        <v>0.24660089411942299</v>
       </c>
       <c r="B80" s="2">
         <v>247</v>
@@ -3832,7 +3832,7 @@
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21821980442755495</v>
+        <v>0.91245419343423972</v>
       </c>
       <c r="B81" s="2">
         <v>220</v>
@@ -3859,7 +3859,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21811596180371995</v>
+        <v>0.50438736710957932</v>
       </c>
       <c r="B82" s="2">
         <v>268</v>
@@ -3886,7 +3886,7 @@
     <row r="83" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52298513363468946</v>
+        <v>0.24088379111045011</v>
       </c>
       <c r="B83" s="2">
         <v>213</v>
@@ -3910,7 +3910,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2471655765117808E-2</v>
+        <v>7.0444227056685516E-2</v>
       </c>
       <c r="B84" s="2">
         <v>55</v>
@@ -3934,7 +3934,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74782789600240362</v>
+        <v>0.29544716268661642</v>
       </c>
       <c r="B85" s="2">
         <v>96</v>
@@ -3958,7 +3958,7 @@
     <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51663562414614495</v>
+        <v>0.86733030548576429</v>
       </c>
       <c r="B86" s="2">
         <v>112</v>
@@ -3985,7 +3985,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92023696571506541</v>
+        <v>0.36602981016334424</v>
       </c>
       <c r="B87" s="2">
         <v>178</v>
@@ -4009,7 +4009,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29471062744803467</v>
+        <v>0.24762823715919979</v>
       </c>
       <c r="B88" s="2">
         <v>173</v>
@@ -4033,7 +4033,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57173506424808873</v>
+        <v>0.10197367204112495</v>
       </c>
       <c r="B89" s="2">
         <v>58</v>
@@ -4054,7 +4054,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3915172773672172</v>
+        <v>0.235712594143619</v>
       </c>
       <c r="B90" s="2">
         <v>185</v>
@@ -4075,7 +4075,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3203777167909778E-2</v>
+        <v>0.58123602969436883</v>
       </c>
       <c r="B91" s="2">
         <v>21</v>
@@ -4102,7 +4102,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62946481294571521</v>
+        <v>6.3453883066259764E-2</v>
       </c>
       <c r="B92" s="2">
         <v>271</v>
@@ -4126,7 +4126,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73504899214003139</v>
+        <v>2.7904358465516643E-2</v>
       </c>
       <c r="B93" s="2">
         <v>226</v>
@@ -4150,7 +4150,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31938101527938889</v>
+        <v>0.85810528691359211</v>
       </c>
       <c r="B94" s="2">
         <v>167</v>
@@ -4174,7 +4174,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0306825907085102E-2</v>
+        <v>0.28810261596482423</v>
       </c>
       <c r="B95" s="2">
         <v>232</v>
@@ -4198,7 +4198,7 @@
     <row r="96" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20341981362443795</v>
+        <v>0.42336804189874677</v>
       </c>
       <c r="B96" s="2">
         <v>83</v>
@@ -4222,7 +4222,7 @@
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9795419842121462E-2</v>
+        <v>0.97922474756611144</v>
       </c>
       <c r="B97" s="2">
         <v>184</v>
@@ -4243,7 +4243,7 @@
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84612392464644415</v>
+        <v>0.82320161975800221</v>
       </c>
       <c r="B98" s="2">
         <v>168</v>
@@ -4264,7 +4264,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22182335249644536</v>
+        <v>0.84876168724250634</v>
       </c>
       <c r="B99" s="2">
         <v>165</v>
@@ -4288,7 +4288,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29555521475872326</v>
+        <v>0.39626801601359396</v>
       </c>
       <c r="B100" s="2">
         <v>230</v>
@@ -4315,7 +4315,7 @@
     <row r="101" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32101182003572692</v>
+        <v>0.83905243880680558</v>
       </c>
       <c r="B101" s="2">
         <v>102</v>
@@ -4339,7 +4339,7 @@
     <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36020408699906481</v>
+        <v>0.29541785675457222</v>
       </c>
       <c r="B102" s="2">
         <v>66</v>
@@ -4363,7 +4363,7 @@
     <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91258189045052951</v>
+        <v>0.78960279874130812</v>
       </c>
       <c r="B103" s="2">
         <v>120</v>
@@ -4387,7 +4387,7 @@
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47345527816409971</v>
+        <v>0.98385760291500313</v>
       </c>
       <c r="B104" s="2">
         <v>18</v>
@@ -4408,7 +4408,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89904893616669013</v>
+        <v>0.91142524609045761</v>
       </c>
       <c r="B105" s="2">
         <v>154</v>
@@ -4429,7 +4429,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1437469853440142</v>
+        <v>1.3693442395306343E-2</v>
       </c>
       <c r="B106" s="2">
         <v>46</v>
@@ -4453,7 +4453,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97334506094918782</v>
+        <v>0.81495810912646194</v>
       </c>
       <c r="B107" s="2">
         <v>224</v>
@@ -4477,7 +4477,7 @@
     <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93908386768844188</v>
+        <v>0.96659480096025385</v>
       </c>
       <c r="B108" s="2">
         <v>147</v>
@@ -4504,7 +4504,7 @@
     <row r="109" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0480284212638975E-2</v>
+        <v>0.4653938978139367</v>
       </c>
       <c r="B109" s="2">
         <v>116</v>
@@ -4528,7 +4528,7 @@
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79901325510267296</v>
+        <v>0.75535252348274218</v>
       </c>
       <c r="B110" s="2">
         <v>25</v>
@@ -4552,7 +4552,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43117243040350572</v>
+        <v>0.53143266701012248</v>
       </c>
       <c r="B111" s="2">
         <v>240</v>
@@ -4576,7 +4576,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32615906516049398</v>
+        <v>0.67063192280456774</v>
       </c>
       <c r="B112" s="2">
         <v>71</v>
@@ -4600,7 +4600,7 @@
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36990757078309877</v>
+        <v>0.96859677870765681</v>
       </c>
       <c r="B113" s="2">
         <v>171</v>
@@ -4624,7 +4624,7 @@
     <row r="114" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78174607599699131</v>
+        <v>0.62917615676658378</v>
       </c>
       <c r="B114" s="2">
         <v>16</v>
@@ -4648,7 +4648,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69969805342641134</v>
+        <v>9.0378083090316697E-3</v>
       </c>
       <c r="B115" s="2">
         <v>161</v>
@@ -4669,7 +4669,7 @@
     <row r="116" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9891421046674187</v>
+        <v>0.91721435670022233</v>
       </c>
       <c r="B116" s="2">
         <v>104</v>
@@ -4690,7 +4690,7 @@
     <row r="117" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9955842687458811E-2</v>
+        <v>0.27414570079976019</v>
       </c>
       <c r="B117" s="2">
         <v>115</v>
@@ -4714,7 +4714,7 @@
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25118197686779165</v>
+        <v>0.7617413191644764</v>
       </c>
       <c r="B118" s="2">
         <v>169</v>
@@ -4735,7 +4735,7 @@
     <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6005878067216215E-2</v>
+        <v>0.72222553192512351</v>
       </c>
       <c r="B119" s="2">
         <v>203</v>
@@ -4762,7 +4762,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12618814958846569</v>
+        <v>0.37340269358531442</v>
       </c>
       <c r="B120" s="2">
         <v>128</v>
@@ -4783,7 +4783,7 @@
     <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79950378321001236</v>
+        <v>0.56696422913437516</v>
       </c>
       <c r="B121" s="2">
         <v>32</v>
@@ -4804,7 +4804,7 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65968757839693415</v>
+        <v>0.19549593460456716</v>
       </c>
       <c r="B122" s="2">
         <v>181</v>
@@ -4828,7 +4828,7 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63567516057640017</v>
+        <v>0.55016088546018649</v>
       </c>
       <c r="B123" s="2">
         <v>176</v>
@@ -4852,7 +4852,7 @@
     <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1477368869183181</v>
+        <v>0.98752373358748191</v>
       </c>
       <c r="B124" s="2">
         <v>72</v>
@@ -4873,7 +4873,7 @@
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89649024289704915</v>
+        <v>1.1242675524865686E-2</v>
       </c>
       <c r="B125" s="2">
         <v>74</v>
@@ -4903,7 +4903,7 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95382770873813461</v>
+        <v>0.40598206718982599</v>
       </c>
       <c r="B126" s="2">
         <v>153</v>
@@ -4927,7 +4927,7 @@
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26887293860716899</v>
+        <v>0.73105549558592964</v>
       </c>
       <c r="B127" s="2">
         <v>215</v>
@@ -4951,7 +4951,7 @@
     <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67037448359975338</v>
+        <v>0.63414473155027429</v>
       </c>
       <c r="B128" s="2">
         <v>265</v>
@@ -4972,7 +4972,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28354081294787448</v>
+        <v>4.6980419883868585E-3</v>
       </c>
       <c r="B129" s="2">
         <v>4</v>
@@ -4996,7 +4996,7 @@
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.58154811574427467</v>
+        <v>0.10356902684422897</v>
       </c>
       <c r="B130" s="2">
         <v>41</v>
@@ -5017,7 +5017,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3640925036867283</v>
+        <v>0.51862605192664957</v>
       </c>
       <c r="B131" s="2">
         <v>61</v>
@@ -5041,7 +5041,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31801508098717801</v>
+        <v>0.83983930223677694</v>
       </c>
       <c r="B132" s="2">
         <v>201</v>
@@ -5065,7 +5065,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99739942040091489</v>
+        <v>0.76794498150636925</v>
       </c>
       <c r="B133" s="2">
         <v>52</v>
@@ -5089,7 +5089,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66680783214480044</v>
+        <v>0.29427509792379347</v>
       </c>
       <c r="B134" s="2">
         <v>239</v>
@@ -5116,7 +5116,7 @@
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50839661339218489</v>
+        <v>0.71878927550622773</v>
       </c>
       <c r="B135" s="2">
         <v>105</v>
@@ -5137,7 +5137,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33180622525446279</v>
+        <v>0.21989640775935115</v>
       </c>
       <c r="B136" s="2">
         <v>135</v>
@@ -5161,7 +5161,7 @@
     <row r="137" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77823198071482114</v>
+        <v>0.25423456004277112</v>
       </c>
       <c r="B137" s="2">
         <v>90</v>
@@ -5185,7 +5185,7 @@
     <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7805952815007311</v>
+        <v>0.81383520972888013</v>
       </c>
       <c r="B138" s="2">
         <v>76</v>
@@ -5206,7 +5206,7 @@
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31804172522829688</v>
+        <v>0.71148874223976355</v>
       </c>
       <c r="B139" s="2">
         <v>29</v>
@@ -5233,7 +5233,7 @@
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48003206558984701</v>
+        <v>0.94870576822126962</v>
       </c>
       <c r="B140" s="2">
         <v>56</v>
@@ -5257,7 +5257,7 @@
     <row r="141" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3875792920180263E-2</v>
+        <v>0.89074603510015005</v>
       </c>
       <c r="B141" s="2">
         <v>258</v>
@@ -5284,7 +5284,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63696392653398271</v>
+        <v>0.74550079195351548</v>
       </c>
       <c r="B142" s="2">
         <v>19</v>
@@ -5305,7 +5305,7 @@
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89531106700373531</v>
+        <v>0.14863960480665439</v>
       </c>
       <c r="B143" s="2">
         <v>155</v>
@@ -5332,7 +5332,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4765865585899427</v>
+        <v>0.9731866347205389</v>
       </c>
       <c r="B144" s="2">
         <v>42</v>
@@ -5359,7 +5359,7 @@
     <row r="145" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64213606832288761</v>
+        <v>0.72245967755391061</v>
       </c>
       <c r="B145" s="2">
         <v>137</v>
@@ -5386,7 +5386,7 @@
     <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64485514741897698</v>
+        <v>0.23711497126203052</v>
       </c>
       <c r="B146" s="2">
         <v>222</v>
@@ -5419,7 +5419,7 @@
     <row r="147" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22809667617597262</v>
+        <v>0.94479279296774421</v>
       </c>
       <c r="B147" s="2">
         <v>196</v>
@@ -5443,7 +5443,7 @@
     <row r="148" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26050229978277839</v>
+        <v>0.30362970597046179</v>
       </c>
       <c r="B148" s="2">
         <v>78</v>
@@ -5464,7 +5464,7 @@
     <row r="149" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10103500803240262</v>
+        <v>8.3266257987525516E-2</v>
       </c>
       <c r="B149" s="2">
         <v>199</v>
@@ -5488,7 +5488,7 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59334333414741325</v>
+        <v>0.34075605883765991</v>
       </c>
       <c r="B150" s="2">
         <v>218</v>
@@ -5509,7 +5509,7 @@
     <row r="151" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74678890157300393</v>
+        <v>0.70063038589295978</v>
       </c>
       <c r="B151" s="2">
         <v>279</v>
@@ -5533,7 +5533,7 @@
     <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67362995318115282</v>
+        <v>0.52685003559591692</v>
       </c>
       <c r="B152" s="2">
         <v>125</v>
@@ -5554,7 +5554,7 @@
     <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15773884186661391</v>
+        <v>0.32747992989258701</v>
       </c>
       <c r="B153" s="2">
         <v>6</v>
@@ -5575,7 +5575,7 @@
     <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97788497593159918</v>
+        <v>0.70460031296616954</v>
       </c>
       <c r="B154" s="2">
         <v>24</v>
@@ -5599,7 +5599,7 @@
     <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81021222184627462</v>
+        <v>0.62842381625223565</v>
       </c>
       <c r="B155" s="2">
         <v>158</v>
@@ -5623,7 +5623,7 @@
     <row r="156" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42477865393645964</v>
+        <v>0.59553478886572619</v>
       </c>
       <c r="B156" s="2">
         <v>210</v>
@@ -5647,7 +5647,7 @@
     <row r="157" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77175429153415598</v>
+        <v>0.3429231914575025</v>
       </c>
       <c r="B157" s="2">
         <v>283</v>
@@ -5677,7 +5677,7 @@
     <row r="158" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44104238276633689</v>
+        <v>0.52239609592618841</v>
       </c>
       <c r="B158" s="2">
         <v>36</v>
@@ -5698,7 +5698,7 @@
     <row r="159" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35834578227717373</v>
+        <v>0.40778872993701132</v>
       </c>
       <c r="B159" s="2">
         <v>278</v>
@@ -5722,7 +5722,7 @@
     <row r="160" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44826312192494477</v>
+        <v>0.37946728779924033</v>
       </c>
       <c r="B160" s="2">
         <v>49</v>
@@ -5752,7 +5752,7 @@
     <row r="161" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95583374786873376</v>
+        <v>0.93384010808866802</v>
       </c>
       <c r="B161" s="2">
         <v>40</v>
@@ -5773,7 +5773,7 @@
     <row r="162" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23015952652982408</v>
+        <v>0.7697189794992737</v>
       </c>
       <c r="B162" s="2">
         <v>88</v>
@@ -5794,7 +5794,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91781864994896367</v>
+        <v>0.49541557622581456</v>
       </c>
       <c r="B163" s="2">
         <v>68</v>
@@ -5818,7 +5818,7 @@
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3788219075175121</v>
+        <v>0.43111941750726435</v>
       </c>
       <c r="B164" s="2">
         <v>244</v>
@@ -5845,7 +5845,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7348627812885669E-2</v>
+        <v>0.64036744038206006</v>
       </c>
       <c r="B165" s="2">
         <v>190</v>
@@ -5872,7 +5872,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96538288473266798</v>
+        <v>0.83254903070017405</v>
       </c>
       <c r="B166" s="2">
         <v>106</v>
@@ -5899,7 +5899,7 @@
     <row r="167" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30054342374133891</v>
+        <v>0.82119167782949576</v>
       </c>
       <c r="B167" s="2">
         <v>10</v>
@@ -5923,7 +5923,7 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30908009073384513</v>
+        <v>0.21821619870160269</v>
       </c>
       <c r="B168" s="2">
         <v>228</v>
@@ -5947,7 +5947,7 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18944518825945333</v>
+        <v>0.71041274036536128</v>
       </c>
       <c r="B169" s="2">
         <v>238</v>
@@ -5971,7 +5971,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93067732871319064</v>
+        <v>0.52886706522220084</v>
       </c>
       <c r="B170" s="2">
         <v>174</v>
@@ -5998,7 +5998,7 @@
     <row r="171" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94205011619369261</v>
+        <v>0.68451493280823661</v>
       </c>
       <c r="B171" s="2">
         <v>290</v>
@@ -6022,7 +6022,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76318243740176184</v>
+        <v>0.36025169627275888</v>
       </c>
       <c r="B172" s="2">
         <v>186</v>
@@ -6043,7 +6043,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24801105552790859</v>
+        <v>0.84208319072239368</v>
       </c>
       <c r="B173" s="2">
         <v>254</v>
@@ -6067,7 +6067,7 @@
     <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78156814406055275</v>
+        <v>0.78248677850070658</v>
       </c>
       <c r="B174" s="2">
         <v>172</v>
@@ -6091,7 +6091,7 @@
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23708695817562098</v>
+        <v>0.47175597481594733</v>
       </c>
       <c r="B175" s="2">
         <v>263</v>
@@ -6115,7 +6115,7 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54983402122004565</v>
+        <v>0.63468433256004009</v>
       </c>
       <c r="B176" s="2">
         <v>233</v>
@@ -6142,7 +6142,7 @@
     <row r="177" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43748919804360642</v>
+        <v>0.91857587126881868</v>
       </c>
       <c r="B177" s="2">
         <v>198</v>
@@ -6166,7 +6166,7 @@
     <row r="178" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28484205571934962</v>
+        <v>0.71842227617650323</v>
       </c>
       <c r="B178" s="2">
         <v>117</v>
@@ -6193,7 +6193,7 @@
     <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74172339333221793</v>
+        <v>0.96434576021261698</v>
       </c>
       <c r="B179" s="2">
         <v>138</v>
@@ -6217,7 +6217,7 @@
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3521295482376847E-2</v>
+        <v>0.83387546741937846</v>
       </c>
       <c r="B180" s="2">
         <v>141</v>
@@ -6241,7 +6241,7 @@
     <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53865819824778649</v>
+        <v>0.18687729834116296</v>
       </c>
       <c r="B181" s="2">
         <v>60</v>
@@ -6265,7 +6265,7 @@
     <row r="182" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47899923951907497</v>
+        <v>0.6572916971653332</v>
       </c>
       <c r="B182" s="2">
         <v>262</v>
@@ -6292,7 +6292,7 @@
     <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35677650990497378</v>
+        <v>0.59183905194879982</v>
       </c>
       <c r="B183" s="2">
         <v>243</v>
@@ -6316,7 +6316,7 @@
     <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36580093418978488</v>
+        <v>0.91816648135157675</v>
       </c>
       <c r="B184" s="2">
         <v>50</v>
@@ -6346,7 +6346,7 @@
     <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76075484564218054</v>
+        <v>0.2424488479734096</v>
       </c>
       <c r="B185" s="2">
         <v>110</v>
@@ -6370,7 +6370,7 @@
     <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71648683546649228</v>
+        <v>0.59691730428095691</v>
       </c>
       <c r="B186" s="2">
         <v>225</v>
@@ -6394,7 +6394,7 @@
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76604748700545722</v>
+        <v>0.28383842647660129</v>
       </c>
       <c r="B187" s="2">
         <v>275</v>
@@ -6421,7 +6421,7 @@
     <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33962559962975969</v>
+        <v>0.51635170462453506</v>
       </c>
       <c r="B188" s="2">
         <v>7</v>
@@ -6442,7 +6442,7 @@
     <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5637902409615787</v>
+        <v>0.25659872378180615</v>
       </c>
       <c r="B189" s="2">
         <v>208</v>
@@ -6466,7 +6466,7 @@
     <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1739915336625502E-2</v>
+        <v>0.66723121735797308</v>
       </c>
       <c r="B190" s="2">
         <v>3</v>
@@ -6490,7 +6490,7 @@
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37763655480187019</v>
+        <v>0.84328433148401694</v>
       </c>
       <c r="B191" s="2">
         <v>152</v>
@@ -6511,7 +6511,7 @@
     <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43698025224716597</v>
+        <v>0.71616479785072329</v>
       </c>
       <c r="B192" s="2">
         <v>79</v>
@@ -6532,7 +6532,7 @@
     <row r="193" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.762119790774346</v>
+        <v>0.27769741708605433</v>
       </c>
       <c r="B193" s="2">
         <v>38</v>
@@ -6556,7 +6556,7 @@
     <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.45784037487854889</v>
+        <v>0.34002202501191992</v>
       </c>
       <c r="B194" s="2">
         <v>62</v>
@@ -6580,7 +6580,7 @@
     <row r="195" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7129128757854124E-2</v>
+        <v>0.46602351538773623</v>
       </c>
       <c r="B195" s="2">
         <v>118</v>
@@ -6604,7 +6604,7 @@
     <row r="196" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2300716539301596</v>
+        <v>0.77431115275501472</v>
       </c>
       <c r="B196" s="2">
         <v>292</v>
@@ -6634,7 +6634,7 @@
     <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84528114692916168</v>
+        <v>0.28738204028260306</v>
       </c>
       <c r="B197" s="2">
         <v>270</v>
@@ -6658,7 +6658,7 @@
     <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92898513915071279</v>
+        <v>0.30263519155571028</v>
       </c>
       <c r="B198" s="2">
         <v>261</v>
@@ -6682,7 +6682,7 @@
     <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98081978255131308</v>
+        <v>0.37395800519187361</v>
       </c>
       <c r="B199" s="2">
         <v>159</v>
@@ -6709,7 +6709,7 @@
     <row r="200" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31873699170393766</v>
+        <v>0.46975169331013733</v>
       </c>
       <c r="B200" s="2">
         <v>5</v>
@@ -6730,7 +6730,7 @@
     <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1999674736736623</v>
+        <v>0.76140459568735852</v>
       </c>
       <c r="B201" s="2">
         <v>131</v>
@@ -6757,7 +6757,7 @@
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99514432314694601</v>
+        <v>0.36524470694707523</v>
       </c>
       <c r="B202" s="2">
         <v>273</v>
@@ -6781,7 +6781,7 @@
     <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52137269306621536</v>
+        <v>0.90649301049746023</v>
       </c>
       <c r="B203" s="2">
         <v>11</v>
@@ -6802,7 +6802,7 @@
     <row r="204" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2948388979347486</v>
+        <v>0.54123118811891513</v>
       </c>
       <c r="B204" s="2">
         <v>204</v>
@@ -6826,7 +6826,7 @@
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88739036895109047</v>
+        <v>0.81252327973982341</v>
       </c>
       <c r="B205" s="2">
         <v>177</v>
@@ -6853,7 +6853,7 @@
     <row r="206" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36803117147119968</v>
+        <v>5.8021921781929442E-2</v>
       </c>
       <c r="B206" s="2">
         <v>298</v>
@@ -6877,7 +6877,7 @@
     <row r="207" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37872985919735636</v>
+        <v>0.98713117836238484</v>
       </c>
       <c r="B207" s="2">
         <v>17</v>
@@ -6898,7 +6898,7 @@
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95335274452286556</v>
+        <v>0.87127917813964295</v>
       </c>
       <c r="B208" s="2">
         <v>134</v>
@@ -6922,7 +6922,7 @@
     <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92429677293122237</v>
+        <v>0.42269921331658222</v>
       </c>
       <c r="B209" s="2">
         <v>67</v>
@@ -6949,7 +6949,7 @@
     <row r="210" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80418360822622048</v>
+        <v>0.33825237239111805</v>
       </c>
       <c r="B210" s="2">
         <v>103</v>
@@ -6976,7 +6976,7 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17235051330898332</v>
+        <v>0.96257580871073201</v>
       </c>
       <c r="B211" s="2">
         <v>237</v>
@@ -7000,7 +7000,7 @@
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64798077594887338</v>
+        <v>0.685684914422801</v>
       </c>
       <c r="B212" s="2">
         <v>8</v>
@@ -7024,7 +7024,7 @@
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88607848260247979</v>
+        <v>0.55609254134065811</v>
       </c>
       <c r="B213" s="2">
         <v>189</v>
@@ -7048,7 +7048,7 @@
     <row r="214" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4774602153125812</v>
+        <v>0.78095132044832649</v>
       </c>
       <c r="B214" s="2">
         <v>81</v>
@@ -7072,7 +7072,7 @@
     <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12479820926115326</v>
+        <v>5.6596313010820687E-2</v>
       </c>
       <c r="B215" s="2">
         <v>200</v>
@@ -7093,7 +7093,7 @@
     <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.038719506372713E-2</v>
+        <v>0.36458657934714445</v>
       </c>
       <c r="B216" s="2">
         <v>28</v>
@@ -7117,7 +7117,7 @@
     <row r="217" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19206292656113122</v>
+        <v>0.87031103709063218</v>
       </c>
       <c r="B217" s="2">
         <v>84</v>
@@ -7138,7 +7138,7 @@
     <row r="218" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13212790489135495</v>
+        <v>0.53964425852685249</v>
       </c>
       <c r="B218" s="2">
         <v>269</v>
@@ -7165,7 +7165,7 @@
     <row r="219" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96341807873083107</v>
+        <v>0.80099037750260593</v>
       </c>
       <c r="B219" s="2">
         <v>211</v>
@@ -7189,7 +7189,7 @@
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7577776358046813E-2</v>
+        <v>0.11468102488091048</v>
       </c>
       <c r="B220" s="2">
         <v>34</v>
@@ -7213,7 +7213,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32212766548090765</v>
+        <v>0.5573638174156279</v>
       </c>
       <c r="B221" s="2">
         <v>26</v>
@@ -7240,7 +7240,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22161940270647318</v>
+        <v>0.8230785803034526</v>
       </c>
       <c r="B222" s="2">
         <v>179</v>
@@ -7261,7 +7261,7 @@
     <row r="223" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52698744654069118</v>
+        <v>0.57345509527120486</v>
       </c>
       <c r="B223" s="2">
         <v>146</v>
@@ -7285,7 +7285,7 @@
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96884607323635152</v>
+        <v>0.31413675760855153</v>
       </c>
       <c r="B224" s="2">
         <v>123</v>
@@ -7309,7 +7309,7 @@
     <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63629771144447889</v>
+        <v>0.98617485281553585</v>
       </c>
       <c r="B225" s="2">
         <v>144</v>
@@ -7333,7 +7333,7 @@
     <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88301552321830501</v>
+        <v>0.16317629011630086</v>
       </c>
       <c r="B226" s="2">
         <v>287</v>
@@ -7360,7 +7360,7 @@
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87357781198601203</v>
+        <v>8.0645546889809294E-3</v>
       </c>
       <c r="B227" s="2">
         <v>59</v>
@@ -7381,7 +7381,7 @@
     <row r="228" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26072578069172991</v>
+        <v>0.18571281331612433</v>
       </c>
       <c r="B228" s="2">
         <v>48</v>
@@ -7405,7 +7405,7 @@
     <row r="229" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57950165380780627</v>
+        <v>0.85925507088764308</v>
       </c>
       <c r="B229" s="2">
         <v>157</v>
@@ -7426,7 +7426,7 @@
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3300315588844116</v>
+        <v>0.12728877165680652</v>
       </c>
       <c r="B230" s="2">
         <v>183</v>
@@ -7447,7 +7447,7 @@
     <row r="231" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54359150317902261</v>
+        <v>0.6569343498699779</v>
       </c>
       <c r="B231" s="2">
         <v>297</v>
@@ -7477,7 +7477,7 @@
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1695691709476863E-3</v>
+        <v>0.56215409443145936</v>
       </c>
       <c r="B232" s="2">
         <v>53</v>
@@ -7501,7 +7501,7 @@
     <row r="233" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76192657589048707</v>
+        <v>0.79602709483729983</v>
       </c>
       <c r="B233" s="2">
         <v>87</v>
@@ -7528,7 +7528,7 @@
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28168079805462942</v>
+        <v>0.45926364674987796</v>
       </c>
       <c r="B234" s="2">
         <v>276</v>
@@ -7552,7 +7552,7 @@
     <row r="235" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99180019742880343</v>
+        <v>0.47703255929783606</v>
       </c>
       <c r="B235" s="2">
         <v>114</v>
@@ -7579,7 +7579,7 @@
     <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73514662547272114</v>
+        <v>0.54799062860164394</v>
       </c>
       <c r="B236" s="2">
         <v>132</v>
@@ -7606,7 +7606,7 @@
     <row r="237" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48036131831777085</v>
+        <v>0.38508447816269786</v>
       </c>
       <c r="B237" s="2">
         <v>156</v>
@@ -7630,7 +7630,7 @@
     <row r="238" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94427831294248754</v>
+        <v>6.045371392639376E-2</v>
       </c>
       <c r="B238" s="2">
         <v>86</v>
@@ -7654,7 +7654,7 @@
     <row r="239" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96677179841511329</v>
+        <v>0.87523567515399081</v>
       </c>
       <c r="B239" s="2">
         <v>73</v>
@@ -7675,7 +7675,7 @@
     <row r="240" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83958706270497863</v>
+        <v>0.7117687173525733</v>
       </c>
       <c r="B240" s="2">
         <v>195</v>
@@ -7699,7 +7699,7 @@
     <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15786232982364934</v>
+        <v>0.45497640602600997</v>
       </c>
       <c r="B241" s="2">
         <v>194</v>
@@ -7720,7 +7720,7 @@
     <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56329084993640277</v>
+        <v>0.35742194901594238</v>
       </c>
       <c r="B242" s="2">
         <v>45</v>
@@ -7747,7 +7747,7 @@
     <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81856642571073857</v>
+        <v>0.17405497653548485</v>
       </c>
       <c r="B243" s="2">
         <v>188</v>
@@ -7771,7 +7771,7 @@
     <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7872767381739503E-2</v>
+        <v>0.13945880402058619</v>
       </c>
       <c r="B244" s="2">
         <v>209</v>
@@ -7795,7 +7795,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69382777520096472</v>
+        <v>6.8938121332015823E-2</v>
       </c>
       <c r="B245" s="2">
         <v>235</v>
@@ -7819,7 +7819,7 @@
     <row r="246" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8252014741799103E-2</v>
+        <v>0.23659528215483816</v>
       </c>
       <c r="B246" s="2">
         <v>253</v>
@@ -7843,7 +7843,7 @@
     <row r="247" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91747869041884089</v>
+        <v>9.3780342247025805E-2</v>
       </c>
       <c r="B247" s="2">
         <v>214</v>
@@ -7867,7 +7867,7 @@
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74687548880150767</v>
+        <v>0.44585434139595759</v>
       </c>
       <c r="B248" s="2">
         <v>288</v>
@@ -7891,7 +7891,7 @@
     <row r="249" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96936321033941486</v>
+        <v>0.24382547446075009</v>
       </c>
       <c r="B249" s="2">
         <v>9</v>
@@ -7918,7 +7918,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19252013271823121</v>
+        <v>0.43200635142962529</v>
       </c>
       <c r="B250" s="2">
         <v>77</v>
@@ -7939,7 +7939,7 @@
     <row r="251" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23930084535280816</v>
+        <v>0.56666418466917412</v>
       </c>
       <c r="B251" s="2">
         <v>140</v>
@@ -7963,7 +7963,7 @@
     <row r="252" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73889835515771163</v>
+        <v>0.43778621550851837</v>
       </c>
       <c r="B252" s="2">
         <v>33</v>
@@ -7984,7 +7984,7 @@
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63637496382751513</v>
+        <v>0.91102694393347639</v>
       </c>
       <c r="B253" s="2">
         <v>229</v>
@@ -8008,7 +8008,7 @@
     <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12267280123594415</v>
+        <v>0.17400717831355828</v>
       </c>
       <c r="B254" s="2">
         <v>212</v>
@@ -8035,7 +8035,7 @@
     <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52670770220963847</v>
+        <v>0.7806995565780166</v>
       </c>
       <c r="B255" s="2">
         <v>248</v>
@@ -8059,7 +8059,7 @@
     <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50340146890017112</v>
+        <v>0.9746035305581785</v>
       </c>
       <c r="B256" s="2">
         <v>206</v>
@@ -8086,7 +8086,7 @@
     <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5967823596245283</v>
+        <v>0.82715968596871114</v>
       </c>
       <c r="B257" s="2">
         <v>192</v>
@@ -8110,7 +8110,7 @@
     <row r="258" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A301" ca="1" si="4">RAND()</f>
-        <v>0.51461741319583509</v>
+        <v>0.25557538006089731</v>
       </c>
       <c r="B258" s="2">
         <v>47</v>
@@ -8134,7 +8134,7 @@
     <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2418750896595636E-3</v>
+        <v>0.42324858107677532</v>
       </c>
       <c r="B259" s="2">
         <v>291</v>
@@ -8161,7 +8161,7 @@
     <row r="260" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5955756107993415E-2</v>
+        <v>0.76066024903949636</v>
       </c>
       <c r="B260" s="2">
         <v>85</v>
@@ -8182,7 +8182,7 @@
     <row r="261" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29456522560328047</v>
+        <v>7.1825201866884236E-2</v>
       </c>
       <c r="B261" s="2">
         <v>282</v>
@@ -8209,7 +8209,7 @@
     <row r="262" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37795619480389619</v>
+        <v>0.44285664163078209</v>
       </c>
       <c r="B262" s="2">
         <v>111</v>
@@ -8236,7 +8236,7 @@
     <row r="263" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6658969819544186</v>
+        <v>0.34205791341123837</v>
       </c>
       <c r="B263" s="2">
         <v>294</v>
@@ -8260,7 +8260,7 @@
     <row r="264" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91829207284553849</v>
+        <v>0.63730067932164158</v>
       </c>
       <c r="B264" s="2">
         <v>293</v>
@@ -8287,7 +8287,7 @@
     <row r="265" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41627305415137705</v>
+        <v>0.31234056465082338</v>
       </c>
       <c r="B265" s="2">
         <v>166</v>
@@ -8308,7 +8308,7 @@
     <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26569176463974964</v>
+        <v>0.60981569917311096</v>
       </c>
       <c r="B266" s="2">
         <v>280</v>
@@ -8329,7 +8329,7 @@
     <row r="267" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.732944947071509E-2</v>
+        <v>0.52147623472168192</v>
       </c>
       <c r="B267" s="2">
         <v>295</v>
@@ -8353,7 +8353,7 @@
     <row r="268" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20959221785069226</v>
+        <v>0.1512680426622337</v>
       </c>
       <c r="B268" s="2">
         <v>14</v>
@@ -8377,7 +8377,7 @@
     <row r="269" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12810607104403704</v>
+        <v>0.37404998276481483</v>
       </c>
       <c r="B269" s="2">
         <v>241</v>
@@ -8398,7 +8398,7 @@
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84899706250939788</v>
+        <v>0.23362022435922403</v>
       </c>
       <c r="B270" s="2">
         <v>151</v>
@@ -8422,7 +8422,7 @@
     <row r="271" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93996835446918592</v>
+        <v>0.86184442756049262</v>
       </c>
       <c r="B271" s="2">
         <v>139</v>
@@ -8452,7 +8452,7 @@
     <row r="272" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21768061047393095</v>
+        <v>0.51944342026296086</v>
       </c>
       <c r="B272" s="2">
         <v>191</v>
@@ -8476,7 +8476,7 @@
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9298985799476871</v>
+        <v>0.7265143302104089</v>
       </c>
       <c r="B273" s="2">
         <v>250</v>
@@ -8503,7 +8503,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75766632128074962</v>
+        <v>0.98972217961857101</v>
       </c>
       <c r="B274" s="2">
         <v>257</v>
@@ -8530,7 +8530,7 @@
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.365756211354288E-2</v>
+        <v>0.51177506491169078</v>
       </c>
       <c r="B275" s="2">
         <v>223</v>
@@ -8554,7 +8554,7 @@
     <row r="276" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1840562924888085</v>
+        <v>0.34331060718822315</v>
       </c>
       <c r="B276" s="2">
         <v>286</v>
@@ -8581,7 +8581,7 @@
     <row r="277" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88738823558755719</v>
+        <v>0.33667419535678655</v>
       </c>
       <c r="B277" s="2">
         <v>12</v>
@@ -8605,7 +8605,7 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2310519542007357E-2</v>
+        <v>0.12443433690466377</v>
       </c>
       <c r="B278" s="2">
         <v>142</v>
@@ -8629,7 +8629,7 @@
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70240623694599436</v>
+        <v>0.10524513598055996</v>
       </c>
       <c r="B279" s="2">
         <v>57</v>
@@ -8653,7 +8653,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33276122907039662</v>
+        <v>0.46152047042728184</v>
       </c>
       <c r="B280" s="2">
         <v>122</v>
@@ -8674,7 +8674,7 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67281124664790992</v>
+        <v>0.97315125598114471</v>
       </c>
       <c r="B281" s="2">
         <v>180</v>
@@ -8698,7 +8698,7 @@
     <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35827896214332478</v>
+        <v>0.83418285624490451</v>
       </c>
       <c r="B282" s="2">
         <v>202</v>
@@ -8725,7 +8725,7 @@
     <row r="283" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23797538509672056</v>
+        <v>0.24730589282817861</v>
       </c>
       <c r="B283" s="2">
         <v>43</v>
@@ -8749,7 +8749,7 @@
     <row r="284" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1477625056656886</v>
+        <v>0.678722417048085</v>
       </c>
       <c r="B284" s="2">
         <v>31</v>
@@ -8770,7 +8770,7 @@
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7429201459399134</v>
+        <v>0.89517784462914074</v>
       </c>
       <c r="B285" s="2">
         <v>95</v>
@@ -8794,7 +8794,7 @@
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42966978494061947</v>
+        <v>0.64202271685424517</v>
       </c>
       <c r="B286" s="2">
         <v>130</v>
@@ -8818,7 +8818,7 @@
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47565229803476983</v>
+        <v>1.2275858731018219E-2</v>
       </c>
       <c r="B287" s="2">
         <v>160</v>
@@ -8842,7 +8842,7 @@
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90565398105883932</v>
+        <v>0.12503315200431819</v>
       </c>
       <c r="B288" s="2">
         <v>23</v>
@@ -8866,7 +8866,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4819237127546669E-2</v>
+        <v>0.96085445451173812</v>
       </c>
       <c r="B289" s="2">
         <v>97</v>
@@ -8887,7 +8887,7 @@
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58011291982536839</v>
+        <v>0.7549089821993934</v>
       </c>
       <c r="B290" s="2">
         <v>267</v>
@@ -8908,7 +8908,7 @@
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8456130279794366</v>
+        <v>0.84476435337571776</v>
       </c>
       <c r="B291" s="2">
         <v>259</v>
@@ -8932,7 +8932,7 @@
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64952454278781535</v>
+        <v>0.36732628075809104</v>
       </c>
       <c r="B292" s="2">
         <v>164</v>
@@ -8956,7 +8956,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94821444811120359</v>
+        <v>0.34041904732340034</v>
       </c>
       <c r="B293" s="2">
         <v>197</v>
@@ -8980,7 +8980,7 @@
     <row r="294" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47606223857443186</v>
+        <v>0.66445130385710816</v>
       </c>
       <c r="B294" s="2">
         <v>284</v>
@@ -9007,7 +9007,7 @@
     <row r="295" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43722312663970253</v>
+        <v>0.85363716722192418</v>
       </c>
       <c r="B295" s="2">
         <v>20</v>
@@ -9034,7 +9034,7 @@
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70739044815563512</v>
+        <v>0.80625681595545406</v>
       </c>
       <c r="B296" s="2">
         <v>234</v>
@@ -9055,7 +9055,7 @@
     <row r="297" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4276900148615277E-2</v>
+        <v>0.25539648626207712</v>
       </c>
       <c r="B297" s="2">
         <v>91</v>
@@ -9079,7 +9079,7 @@
     <row r="298" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95849994213374112</v>
+        <v>0.33183211735310425</v>
       </c>
       <c r="B298" s="2">
         <v>101</v>
@@ -9103,7 +9103,7 @@
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64799115115322747</v>
+        <v>0.3411332916071127</v>
       </c>
       <c r="B299" s="2">
         <v>51</v>
@@ -9124,7 +9124,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33892091984971884</v>
+        <v>0.77281978916505567</v>
       </c>
       <c r="B300" s="2">
         <v>289</v>
@@ -9151,7 +9151,7 @@
     <row r="301" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80688902483886193</v>
+        <v>0.31012503561787896</v>
       </c>
       <c r="B301" s="2">
         <v>13</v>
@@ -9450,8 +9450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="F322" sqref="F322"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
